--- a/backtest/doublesort 10x10 betas.xlsx
+++ b/backtest/doublesort 10x10 betas.xlsx
@@ -160,34 +160,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.1100434624067332</v>
+        <v>1.1100434624067308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9508713763438394</v>
+        <v>0.9508713763438372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8431118038909248</v>
+        <v>0.8431118038909239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8022481820701768</v>
+        <v>0.8022481820701766</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6801397459146769</v>
+        <v>0.6801397459146761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7254787757026337</v>
+        <v>0.7254787757026325</v>
       </c>
       <c r="H2" t="n">
         <v>0.7051343465383176</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7357727722251779</v>
+        <v>0.7357727722251771</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8317055377767042</v>
+        <v>0.8317055377767044</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9131411027685765</v>
+        <v>0.9131411027685767</v>
       </c>
     </row>
     <row r="3">
@@ -195,34 +195,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3112035956074655</v>
+        <v>1.3112035956074646</v>
       </c>
       <c r="C3" t="n">
-        <v>1.003740345059537</v>
+        <v>1.0037403450595368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8982740495163168</v>
+        <v>0.898274049516316</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9106629032798156</v>
+        <v>0.9106629032798146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8066743754180377</v>
+        <v>0.8066743754180373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7781288541844295</v>
+        <v>0.7781288541844288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8043592158107177</v>
+        <v>0.804359215810717</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8264157035388905</v>
+        <v>0.8264157035388899</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8804792341161173</v>
+        <v>0.8804792341161164</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0217461900627849</v>
+        <v>1.0217461900627844</v>
       </c>
     </row>
     <row r="4">
@@ -230,34 +230,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1.31323692626961</v>
+        <v>1.313236926269608</v>
       </c>
       <c r="C4" t="n">
         <v>1.0726632234068108</v>
       </c>
       <c r="D4" t="n">
-        <v>1.039864159461134</v>
+        <v>1.039864159461133</v>
       </c>
       <c r="E4" t="n">
         <v>0.8383478953834074</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8642319937026026</v>
+        <v>0.8642319937026021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7991337477801425</v>
+        <v>0.7991337477801418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8265487861137071</v>
+        <v>0.8265487861137066</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7886066291723134</v>
+        <v>0.788606629172313</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8561514634484395</v>
+        <v>0.8561514634484386</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9410822737496531</v>
+        <v>0.9410822737496521</v>
       </c>
     </row>
     <row r="5">
@@ -265,31 +265,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1.3392299815202373</v>
+        <v>1.3392299815202362</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1351878276022387</v>
+        <v>1.1351878276022367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9407666684822407</v>
+        <v>0.9407666684822413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8709733129629781</v>
+        <v>0.8709733129629776</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7908234249618886</v>
+        <v>0.7908234249618878</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8395358930195042</v>
+        <v>0.8395358930195033</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8418342823210736</v>
+        <v>0.8418342823210729</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8449562512845811</v>
+        <v>0.8449562512845806</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9345460318301394</v>
+        <v>0.9345460318301383</v>
       </c>
       <c r="K5" t="n">
         <v>1.0232732118692591</v>
@@ -300,31 +300,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1.4241263366893053</v>
+        <v>1.424126336689303</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0994643653391418</v>
+        <v>1.0994643653391414</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0197139240530517</v>
+        <v>1.0197139240530502</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9116052880297397</v>
+        <v>0.9116052880297387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9027226783981456</v>
+        <v>0.9027226783981448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8385591757763554</v>
+        <v>0.8385591757763559</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8149983100001948</v>
+        <v>0.8149983100001938</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8681440610769329</v>
+        <v>0.8681440610769309</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9092756092459963</v>
+        <v>0.9092756092459948</v>
       </c>
       <c r="K6" t="n">
         <v>1.0636348841015222</v>
@@ -335,34 +335,34 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1.428096759939178</v>
+        <v>1.428096759939179</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1784260747998547</v>
+        <v>1.178426074799854</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0566642121742555</v>
+        <v>1.056664212174255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9935304765089698</v>
+        <v>0.9935304765089703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9820291850486336</v>
+        <v>0.9820291850486328</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9520752381886096</v>
+        <v>0.9520752381886103</v>
       </c>
       <c r="H7" t="n">
-        <v>0.918048571193598</v>
+        <v>0.9180485711935978</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9388430733531266</v>
+        <v>0.9388430733531259</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0108937803547553</v>
+        <v>1.0108937803547537</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0676331333453817</v>
+        <v>1.0676331333453815</v>
       </c>
     </row>
     <row r="8">
@@ -370,34 +370,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5088256897350325</v>
+        <v>1.5088256897350323</v>
       </c>
       <c r="C8" t="n">
-        <v>1.236400136166226</v>
+        <v>1.236400136166225</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1542401163183011</v>
+        <v>1.1542401163182985</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0480699015382506</v>
+        <v>1.04806990153825</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0818570343917817</v>
+        <v>1.0818570343917806</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9922272448059356</v>
+        <v>0.9922272448059345</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0064763741607956</v>
+        <v>1.0064763741607938</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0703272929340593</v>
+        <v>1.0703272929340581</v>
       </c>
       <c r="J8" t="n">
         <v>1.016338682144881</v>
       </c>
       <c r="K8" t="n">
-        <v>1.1815662080335803</v>
+        <v>1.1815662080335805</v>
       </c>
     </row>
     <row r="9">
@@ -405,34 +405,34 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1.5512085373770144</v>
+        <v>1.5512085373770137</v>
       </c>
       <c r="C9" t="n">
-        <v>1.2990704821011068</v>
+        <v>1.2990704821011063</v>
       </c>
       <c r="D9" t="n">
-        <v>1.2615723941242623</v>
+        <v>1.2615723941242607</v>
       </c>
       <c r="E9" t="n">
-        <v>1.1622797261191453</v>
+        <v>1.1622797261191438</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0856754792286614</v>
+        <v>1.0856754792286594</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0969042942627192</v>
+        <v>1.0969042942627176</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0591539014473228</v>
+        <v>1.0591539014473226</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1464260703469003</v>
+        <v>1.1464260703468996</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1191945539012538</v>
+        <v>1.1191945539012524</v>
       </c>
       <c r="K9" t="n">
-        <v>1.259048762308752</v>
+        <v>1.2590487623087512</v>
       </c>
     </row>
     <row r="10">
@@ -440,34 +440,34 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>1.6364715055840058</v>
+        <v>1.6364715055840062</v>
       </c>
       <c r="C10" t="n">
         <v>1.4100100592035036</v>
       </c>
       <c r="D10" t="n">
-        <v>1.3683050831367636</v>
+        <v>1.3683050831367638</v>
       </c>
       <c r="E10" t="n">
-        <v>1.2368761331522056</v>
+        <v>1.2368761331522036</v>
       </c>
       <c r="F10" t="n">
-        <v>1.2810848408300421</v>
+        <v>1.2810848408300413</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2235593336667798</v>
+        <v>1.223559333666781</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2101131814561434</v>
+        <v>1.210113181456143</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1334560099824451</v>
+        <v>1.1334560099824442</v>
       </c>
       <c r="J10" t="n">
-        <v>1.2556147127027868</v>
+        <v>1.2556147127027861</v>
       </c>
       <c r="K10" t="n">
-        <v>1.3042145897059414</v>
+        <v>1.304214589705942</v>
       </c>
     </row>
     <row r="11">
@@ -475,31 +475,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1.7609592862534138</v>
+        <v>1.7609592862534125</v>
       </c>
       <c r="C11" t="n">
-        <v>1.585835001655445</v>
+        <v>1.5858350016554443</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5278541605656644</v>
+        <v>1.527854160565663</v>
       </c>
       <c r="E11" t="n">
-        <v>1.572254567566605</v>
+        <v>1.5722545675666024</v>
       </c>
       <c r="F11" t="n">
-        <v>1.4985395811858968</v>
+        <v>1.498539581185896</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4118994068926447</v>
+        <v>1.411899406892642</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4369267114663242</v>
+        <v>1.4369267114663238</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4271430879674356</v>
+        <v>1.4271430879674338</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4454308655945691</v>
+        <v>1.4454308655945665</v>
       </c>
       <c r="K11" t="n">
         <v>1.4436056587060369</v>
